--- a/Lab 1/Lab1.3/Requirements Source Traceability Matrix.xlsx
+++ b/Lab 1/Lab1.3/Requirements Source Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\SE357-Pratice-class\Lab 1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DB8EA-D1FC-4C96-8B9D-A0726E3E4CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB3F0E-E284-4746-B983-0BF1FD349153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FBCE231-92B5-486F-AFE0-B98EF5C57CED}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +106,22 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="13"/>
       <color rgb="FF111111"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF111111"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,17 +140,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,31 +488,33 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -499,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -513,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -527,7 +556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
